--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Efnb3</t>
+  </si>
+  <si>
+    <t>Epha4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Efnb3</t>
-  </si>
-  <si>
-    <t>Epha4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>0.4160923034084444</v>
+        <v>1.397595036221333</v>
       </c>
       <c r="R2">
-        <v>3.744830730676</v>
+        <v>12.578355325992</v>
       </c>
       <c r="S2">
-        <v>0.05293083880232969</v>
+        <v>0.1838336404510693</v>
       </c>
       <c r="T2">
-        <v>0.0529308388023297</v>
+        <v>0.1838336404510692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H3">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I3">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J3">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>0.154731956084</v>
+        <v>0.530178227408</v>
       </c>
       <c r="R3">
-        <v>1.392587604756</v>
+        <v>4.771604046672</v>
       </c>
       <c r="S3">
-        <v>0.01968335428932893</v>
+        <v>0.06973736390465567</v>
       </c>
       <c r="T3">
-        <v>0.01968335428932894</v>
+        <v>0.06973736390465562</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H4">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I4">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J4">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.001692205053111111</v>
+        <v>0.005798222281777778</v>
       </c>
       <c r="R4">
-        <v>0.015229845478</v>
+        <v>0.052184000536</v>
       </c>
       <c r="S4">
-        <v>0.0002152643347473516</v>
+        <v>0.0007626732226279241</v>
       </c>
       <c r="T4">
-        <v>0.0002152643347473517</v>
+        <v>0.0007626732226279239</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H5">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I5">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J5">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>0.1077461774851111</v>
+        <v>0.1018061451751111</v>
       </c>
       <c r="R5">
-        <v>0.969715597366</v>
+        <v>0.916255306576</v>
       </c>
       <c r="S5">
-        <v>0.01370632310502833</v>
+        <v>0.01339114250035647</v>
       </c>
       <c r="T5">
-        <v>0.01370632310502833</v>
+        <v>0.01339114250035647</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H6">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I6">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J6">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,36 +815,36 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>0.002942428031777778</v>
+        <v>0.01008202389244445</v>
       </c>
       <c r="R6">
-        <v>0.026481852286</v>
+        <v>0.090738215032</v>
       </c>
       <c r="S6">
-        <v>0.0003743044092901743</v>
+        <v>0.001326146063221422</v>
       </c>
       <c r="T6">
-        <v>0.0003743044092901745</v>
+        <v>0.001326146063221422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,40 +859,40 @@
         <v>0.189466</v>
       </c>
       <c r="I7">
-        <v>0.08692959137136652</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J7">
-        <v>0.08692959137136655</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.0001533411493333333</v>
+        <v>0.4078866362073333</v>
       </c>
       <c r="R7">
-        <v>0.001380070344</v>
+        <v>3.670979725866</v>
       </c>
       <c r="S7">
-        <v>1.950643064204756E-05</v>
+        <v>0.05365165393551104</v>
       </c>
       <c r="T7">
-        <v>1.950643064204756E-05</v>
+        <v>0.05365165393551104</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>26</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H8">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I8">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J8">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>3.701610857289333</v>
+        <v>0.154731956084</v>
       </c>
       <c r="R8">
-        <v>33.314497715604</v>
+        <v>1.392587604756</v>
       </c>
       <c r="S8">
-        <v>0.4708795764573587</v>
+        <v>0.02035277605016619</v>
       </c>
       <c r="T8">
-        <v>0.4708795764573587</v>
+        <v>0.02035277605016618</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H9">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I9">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J9">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>1.376515460436</v>
+        <v>0.001692205053111111</v>
       </c>
       <c r="R9">
-        <v>12.388639143924</v>
+        <v>0.015229845478</v>
       </c>
       <c r="S9">
-        <v>0.1751056612881676</v>
+        <v>0.0002225853750484021</v>
       </c>
       <c r="T9">
-        <v>0.1751056612881677</v>
+        <v>0.000222585375048402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.06315533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.189466</v>
+      </c>
+      <c r="I10">
+        <v>0.07852224049441002</v>
+      </c>
+      <c r="J10">
+        <v>0.07852224049441003</v>
+      </c>
+      <c r="K10">
         <v>3</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H10">
-        <v>1.685514</v>
-      </c>
-      <c r="I10">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J10">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.01505407465133333</v>
+        <v>0.02971201601644444</v>
       </c>
       <c r="R10">
-        <v>0.135486671862</v>
+        <v>0.267408144148</v>
       </c>
       <c r="S10">
-        <v>0.001915019317013858</v>
+        <v>0.003908190804835146</v>
       </c>
       <c r="T10">
-        <v>0.001915019317013859</v>
+        <v>0.003908190804835146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H11">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I11">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J11">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>0.9585239071793333</v>
+        <v>0.002942428031777778</v>
       </c>
       <c r="R11">
-        <v>8.626715164614</v>
+        <v>0.026481852286</v>
       </c>
       <c r="S11">
-        <v>0.1219332201136284</v>
+        <v>0.0003870343288492618</v>
       </c>
       <c r="T11">
-        <v>0.1219332201136284</v>
+        <v>0.0003870343288492617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,60 +1154,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4426526666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.327958</v>
+      </c>
+      <c r="I12">
+        <v>0.5503585732663155</v>
+      </c>
+      <c r="J12">
+        <v>0.5503585732663157</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H12">
-        <v>1.685514</v>
-      </c>
-      <c r="I12">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J12">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.02617621969933333</v>
+        <v>2.858857640128666</v>
       </c>
       <c r="R12">
-        <v>0.235585977294</v>
+        <v>25.729718761158</v>
       </c>
       <c r="S12">
-        <v>0.003329860355527213</v>
+        <v>0.3760418389415165</v>
       </c>
       <c r="T12">
-        <v>0.003329860355527214</v>
+        <v>0.3760418389415165</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1216,55 +1216,55 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4426526666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.327958</v>
+      </c>
+      <c r="I13">
+        <v>0.5503585732663155</v>
+      </c>
+      <c r="J13">
+        <v>0.5503585732663157</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5618379999999999</v>
-      </c>
-      <c r="H13">
-        <v>1.685514</v>
-      </c>
-      <c r="I13">
-        <v>0.7733368692573732</v>
-      </c>
-      <c r="J13">
-        <v>0.7733368692573734</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.001364142664</v>
+        <v>1.084508771692</v>
       </c>
       <c r="R13">
-        <v>0.012277283976</v>
+        <v>9.760578945228</v>
       </c>
       <c r="S13">
-        <v>0.0001735317256774311</v>
+        <v>0.142651619699717</v>
       </c>
       <c r="T13">
-        <v>0.0001735317256774311</v>
+        <v>0.142651619699717</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H14">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J14">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>0.4834696263506667</v>
+        <v>0.01186058310155555</v>
       </c>
       <c r="R14">
-        <v>4.351226637156</v>
+        <v>0.106745247914</v>
       </c>
       <c r="S14">
-        <v>0.06150186544803645</v>
+        <v>0.001560090092568196</v>
       </c>
       <c r="T14">
-        <v>0.06150186544803645</v>
+        <v>0.001560090092568196</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H15">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J15">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>0.179787514404</v>
+        <v>0.2082500784582222</v>
       </c>
       <c r="R15">
-        <v>1.618087629636</v>
+        <v>1.874250706124</v>
       </c>
       <c r="S15">
-        <v>0.02287065601943678</v>
+        <v>0.02739231970278188</v>
       </c>
       <c r="T15">
-        <v>0.02287065601943678</v>
+        <v>0.02739231970278188</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1402,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H16">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J16">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.001966221768666667</v>
+        <v>0.02062333529088889</v>
       </c>
       <c r="R16">
-        <v>0.017695995918</v>
+        <v>0.185610017618</v>
       </c>
       <c r="S16">
-        <v>0.0002501218278598296</v>
+        <v>0.002712704829732026</v>
       </c>
       <c r="T16">
-        <v>0.0002501218278598296</v>
+        <v>0.002712704829732025</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,7 +1464,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.073382</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H17">
-        <v>0.220146</v>
+        <v>0.24628</v>
       </c>
       <c r="I17">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J17">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>0.1251933855606667</v>
+        <v>0.5301970842533333</v>
       </c>
       <c r="R17">
-        <v>1.126740470046</v>
+        <v>4.77177375828</v>
       </c>
       <c r="S17">
-        <v>0.01592577141164941</v>
+        <v>0.06973984425299348</v>
       </c>
       <c r="T17">
-        <v>0.01592577141164941</v>
+        <v>0.06973984425299345</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,7 +1526,7 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,51 +1535,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.073382</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H18">
-        <v>0.220146</v>
+        <v>0.24628</v>
       </c>
       <c r="I18">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J18">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.003418891840666667</v>
+        <v>0.20113047272</v>
       </c>
       <c r="R18">
-        <v>0.030770026566</v>
+        <v>1.81017425448</v>
       </c>
       <c r="S18">
-        <v>0.000434915069128998</v>
+        <v>0.02645583738314489</v>
       </c>
       <c r="T18">
-        <v>0.0004349150691289981</v>
+        <v>0.02645583738314488</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>24</v>
@@ -1588,7 +1588,7 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.073382</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H19">
-        <v>0.220146</v>
+        <v>0.24628</v>
       </c>
       <c r="I19">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J19">
-        <v>0.1010059948594516</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.000178171496</v>
+        <v>0.002199636137777778</v>
       </c>
       <c r="R19">
-        <v>0.001603543464</v>
+        <v>0.01979672524</v>
       </c>
       <c r="S19">
-        <v>2.266508334014654E-05</v>
+        <v>0.0002893306776251173</v>
       </c>
       <c r="T19">
-        <v>2.266508334014654E-05</v>
+        <v>0.0002893306776251172</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1659,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H20">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J20">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.588395333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N20">
-        <v>19.765186</v>
+        <v>1.411378</v>
       </c>
       <c r="O20">
-        <v>0.6088932199877385</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P20">
-        <v>0.6088932199877384</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q20">
-        <v>0.1853710910986667</v>
+        <v>0.03862157487111111</v>
       </c>
       <c r="R20">
-        <v>1.668339819888</v>
+        <v>0.34759417384</v>
       </c>
       <c r="S20">
-        <v>0.02358093928001354</v>
+        <v>0.005080115859387965</v>
       </c>
       <c r="T20">
-        <v>0.02358093928001354</v>
+        <v>0.005080115859387963</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,294 +1721,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H21">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I21">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J21">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.450022</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N21">
-        <v>7.350066</v>
+        <v>0.139771</v>
       </c>
       <c r="O21">
-        <v>0.2264286991208885</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P21">
-        <v>0.2264286991208884</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q21">
-        <v>0.06893381899200002</v>
+        <v>0.003824755764444445</v>
       </c>
       <c r="R21">
-        <v>0.620404370928</v>
+        <v>0.03442280188</v>
       </c>
       <c r="S21">
-        <v>0.008769027523955102</v>
+        <v>0.0005030919241921833</v>
       </c>
       <c r="T21">
-        <v>0.0087690275239551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.028136</v>
-      </c>
-      <c r="H22">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J22">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M22">
-        <v>0.02679433333333334</v>
-      </c>
-      <c r="N22">
-        <v>0.08038300000000001</v>
-      </c>
-      <c r="O22">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="P22">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="Q22">
-        <v>0.0007538853626666669</v>
-      </c>
-      <c r="R22">
-        <v>0.006784968264000002</v>
-      </c>
-      <c r="S22">
-        <v>9.5901280268515E-05</v>
-      </c>
-      <c r="T22">
-        <v>9.5901280268515E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.028136</v>
-      </c>
-      <c r="H23">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J23">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.706050333333333</v>
-      </c>
-      <c r="N23">
-        <v>5.118151</v>
-      </c>
-      <c r="O23">
-        <v>0.157671546464246</v>
-      </c>
-      <c r="P23">
-        <v>0.1576715464642459</v>
-      </c>
-      <c r="Q23">
-        <v>0.04800143217866668</v>
-      </c>
-      <c r="R23">
-        <v>0.4320128896080001</v>
-      </c>
-      <c r="S23">
-        <v>0.006106231833939767</v>
-      </c>
-      <c r="T23">
-        <v>0.006106231833939766</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.028136</v>
-      </c>
-      <c r="H24">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J24">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.04659033333333334</v>
-      </c>
-      <c r="N24">
-        <v>0.139771</v>
-      </c>
-      <c r="O24">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="P24">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="Q24">
-        <v>0.001310865618666667</v>
-      </c>
-      <c r="R24">
-        <v>0.011797790568</v>
-      </c>
-      <c r="S24">
-        <v>0.0001667543864300985</v>
-      </c>
-      <c r="T24">
-        <v>0.0001667543864300985</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.028136</v>
-      </c>
-      <c r="H25">
-        <v>0.08440800000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="J25">
-        <v>0.03872754451180849</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M25">
-        <v>0.002428</v>
-      </c>
-      <c r="N25">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O25">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P25">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q25">
-        <v>6.831420800000001E-05</v>
-      </c>
-      <c r="R25">
-        <v>0.0006148278720000002</v>
-      </c>
-      <c r="S25">
-        <v>8.690207201471246E-06</v>
-      </c>
-      <c r="T25">
-        <v>8.690207201471245E-06</v>
+        <v>0.0005030919241921832</v>
       </c>
     </row>
   </sheetData>
